--- a/data/test_ppm.xlsx
+++ b/data/test_ppm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>value</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,6 +469,9 @@
       <c r="C2" t="n">
         <v>1312</v>
       </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,6 +487,9 @@
       <c r="C3" t="n">
         <v>500000</v>
       </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,6 +505,9 @@
       <c r="C4" t="n">
         <v>635</v>
       </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -509,6 +523,9 @@
       <c r="C5" t="n">
         <v>2.55</v>
       </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -524,6 +541,9 @@
       <c r="C6" t="n">
         <v>177</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +559,9 @@
       <c r="C7" t="n">
         <v>943.3333333333334</v>
       </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -554,6 +577,9 @@
       <c r="C8" t="n">
         <v>5312.5</v>
       </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -569,6 +595,9 @@
       <c r="C9" t="n">
         <v>8050</v>
       </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -584,6 +613,9 @@
       <c r="C10" t="n">
         <v>250</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -599,6 +631,9 @@
       <c r="C11" t="n">
         <v>8050</v>
       </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -614,6 +649,9 @@
       <c r="C12" t="n">
         <v>792</v>
       </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -629,6 +667,9 @@
       <c r="C13" t="n">
         <v>164000</v>
       </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -644,6 +685,9 @@
       <c r="C14" t="n">
         <v>3496</v>
       </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -659,6 +703,9 @@
       <c r="C15" t="n">
         <v>15</v>
       </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -674,6 +721,9 @@
       <c r="C16" t="n">
         <v>24100</v>
       </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -689,6 +739,9 @@
       <c r="C17" t="n">
         <v>26</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -704,6 +757,9 @@
       <c r="C18" t="n">
         <v>430</v>
       </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -719,6 +775,9 @@
       <c r="C19" t="n">
         <v>1525</v>
       </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -734,6 +793,9 @@
       <c r="C20" t="n">
         <v>6.1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -749,6 +811,9 @@
       <c r="C21" t="n">
         <v>430</v>
       </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -764,6 +829,9 @@
       <c r="C22" t="n">
         <v>22</v>
       </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -779,6 +847,9 @@
       <c r="C23" t="n">
         <v>1238</v>
       </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -794,6 +865,9 @@
       <c r="C24" t="n">
         <v>314</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -809,6 +883,9 @@
       <c r="C25" t="n">
         <v>928</v>
       </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -824,6 +901,9 @@
       <c r="C26" t="n">
         <v>2072</v>
       </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -839,6 +919,9 @@
       <c r="C27" t="n">
         <v>6372.666666666667</v>
       </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -854,6 +937,9 @@
       <c r="C28" t="n">
         <v>25</v>
       </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -869,6 +955,9 @@
       <c r="C29" t="n">
         <v>318.5</v>
       </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -884,6 +973,9 @@
       <c r="C30" t="n">
         <v>3587</v>
       </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -899,6 +991,9 @@
       <c r="C31" t="n">
         <v>9923</v>
       </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -914,6 +1009,9 @@
       <c r="C32" t="n">
         <v>3500</v>
       </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -928,6 +1026,9 @@
       </c>
       <c r="C33" t="n">
         <v>784</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
